--- a/Doc/Test/単体テスト仕様書.xlsx
+++ b/Doc/Test/単体テスト仕様書.xlsx
@@ -12,6 +12,107 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作手順</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待結果</t>
+    <rPh sb="0" eb="2">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果(2016/10/21)</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\業務管理ソフトDataのフォルダを削除して、システムを起動する</t>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Error Msgが表示する</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務管理ソフトDataのフォルダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Template情報のフォルダ</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取引情報のフォルダ</t>
+    <rPh sb="0" eb="2">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品情報のフォルダ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ大</t>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ小</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33,20 +134,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -55,8 +177,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -356,7 +484,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6328125" defaultRowHeight="13"/>
@@ -368,14 +496,355 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="4" max="4" width="28.08984375" customWidth="1"/>
+    <col min="5" max="5" width="59.54296875" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
